--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N2">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q2">
-        <v>4055.236398112107</v>
+        <v>4046.15681903763</v>
       </c>
       <c r="R2">
-        <v>36497.12758300896</v>
+        <v>36415.41137133867</v>
       </c>
       <c r="S2">
-        <v>0.02518979833087893</v>
+        <v>0.02042257148587913</v>
       </c>
       <c r="T2">
-        <v>0.02518979833087892</v>
+        <v>0.02042257148587913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P3">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q3">
-        <v>16.321350228064</v>
+        <v>14.20836019812</v>
       </c>
       <c r="R3">
-        <v>146.892152052576</v>
+        <v>127.87524178308</v>
       </c>
       <c r="S3">
-        <v>0.0001013828739858364</v>
+        <v>7.171527571001116E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001013828739858364</v>
+        <v>7.171527571001115E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N4">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O4">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P4">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q4">
-        <v>26790.12699592676</v>
+        <v>39797.36457587583</v>
       </c>
       <c r="R4">
-        <v>241111.1429633409</v>
+        <v>358176.2811828824</v>
       </c>
       <c r="S4">
-        <v>0.1664114813627629</v>
+        <v>0.2008732136076061</v>
       </c>
       <c r="T4">
-        <v>0.1664114813627628</v>
+        <v>0.200873213607606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N5">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O5">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P5">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q5">
-        <v>1626.329988024037</v>
+        <v>1715.33533641096</v>
       </c>
       <c r="R5">
-        <v>14636.96989221634</v>
+        <v>15438.01802769864</v>
       </c>
       <c r="S5">
-        <v>0.01010222842664812</v>
+        <v>0.008657983389393081</v>
       </c>
       <c r="T5">
-        <v>0.01010222842664812</v>
+        <v>0.00865798338939308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N6">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O6">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P6">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q6">
-        <v>37854.49597804021</v>
+        <v>34615.4554302117</v>
       </c>
       <c r="R6">
-        <v>340690.4638023619</v>
+        <v>311539.0988719053</v>
       </c>
       <c r="S6">
-        <v>0.2351397122120474</v>
+        <v>0.1747180459525305</v>
       </c>
       <c r="T6">
-        <v>0.2351397122120473</v>
+        <v>0.1747180459525305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N7">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q7">
-        <v>5090.7773856114</v>
+        <v>5834.756903626035</v>
       </c>
       <c r="R7">
-        <v>45816.99647050261</v>
+        <v>52512.81213263432</v>
       </c>
       <c r="S7">
-        <v>0.03162223927331331</v>
+        <v>0.02945035135721002</v>
       </c>
       <c r="T7">
-        <v>0.0316222392733133</v>
+        <v>0.02945035135721002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P8">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q8">
         <v>20.48915340234</v>
@@ -948,10 +948,10 @@
         <v>184.40238062106</v>
       </c>
       <c r="S8">
-        <v>0.0001272719002067702</v>
+        <v>0.0001034169506420558</v>
       </c>
       <c r="T8">
-        <v>0.0001272719002067702</v>
+        <v>0.0001034169506420558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N9">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O9">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P9">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q9">
-        <v>33631.22621704954</v>
+        <v>57389.75479463593</v>
       </c>
       <c r="R9">
-        <v>302681.0359534459</v>
+        <v>516507.7931517233</v>
       </c>
       <c r="S9">
-        <v>0.2089061457482574</v>
+        <v>0.289669042073682</v>
       </c>
       <c r="T9">
-        <v>0.2089061457482574</v>
+        <v>0.289669042073682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N10">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O10">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P10">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q10">
-        <v>2041.62793775199</v>
+        <v>2473.59782227572</v>
       </c>
       <c r="R10">
-        <v>18374.65143976791</v>
+        <v>22262.38040048148</v>
       </c>
       <c r="S10">
-        <v>0.01268192306682861</v>
+        <v>0.0124852373776151</v>
       </c>
       <c r="T10">
-        <v>0.0126819230668286</v>
+        <v>0.01248523737761509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N11">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O11">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P11">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q11">
-        <v>47520.98106005345</v>
+        <v>49917.18724130565</v>
       </c>
       <c r="R11">
-        <v>427688.8295404811</v>
+        <v>449254.6851717508</v>
       </c>
       <c r="S11">
-        <v>0.2951847467993582</v>
+        <v>0.2519520054222835</v>
       </c>
       <c r="T11">
-        <v>0.2951847467993581</v>
+        <v>0.2519520054222835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N12">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q12">
-        <v>1.144370840386667</v>
+        <v>15.21057320105033</v>
       </c>
       <c r="R12">
-        <v>10.29933756348</v>
+        <v>136.895158809453</v>
       </c>
       <c r="S12">
-        <v>7.108456290858549E-06</v>
+        <v>7.677384551138891E-05</v>
       </c>
       <c r="T12">
-        <v>7.108456290858549E-06</v>
+        <v>7.677384551138889E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.291612</v>
       </c>
       <c r="O13">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P13">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q13">
-        <v>0.004605817132</v>
+        <v>0.05341298237466666</v>
       </c>
       <c r="R13">
-        <v>0.04145235418799999</v>
+        <v>0.480716841372</v>
       </c>
       <c r="S13">
-        <v>2.860982525161775E-08</v>
+        <v>2.69596681396072E-07</v>
       </c>
       <c r="T13">
-        <v>2.860982525161774E-08</v>
+        <v>2.695966813960719E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N14">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O14">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P14">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q14">
-        <v>7.560062382224332</v>
+        <v>149.6088150222081</v>
       </c>
       <c r="R14">
-        <v>68.04056144001899</v>
+        <v>1346.479335199873</v>
       </c>
       <c r="S14">
-        <v>4.696062771229606E-05</v>
+        <v>0.0007551355165802576</v>
       </c>
       <c r="T14">
-        <v>4.696062771229605E-05</v>
+        <v>0.0007551355165802575</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N15">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O15">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P15">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q15">
-        <v>0.4589435565353334</v>
+        <v>6.448399027952888</v>
       </c>
       <c r="R15">
-        <v>4.130492008818</v>
+        <v>58.03559125157599</v>
       </c>
       <c r="S15">
-        <v>2.850806833299139E-06</v>
+        <v>3.254764854842286E-05</v>
       </c>
       <c r="T15">
-        <v>2.850806833299138E-06</v>
+        <v>3.254764854842285E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N16">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O16">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P16">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q16">
-        <v>10.68238127744433</v>
+        <v>130.1286485564744</v>
       </c>
       <c r="R16">
-        <v>96.141431496999</v>
+        <v>1171.15783700827</v>
       </c>
       <c r="S16">
-        <v>6.635544852518379E-05</v>
+        <v>0.0006568113264916748</v>
       </c>
       <c r="T16">
-        <v>6.635544852518377E-05</v>
+        <v>0.0006568113264916748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N17">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q17">
-        <v>130.6390739829866</v>
+        <v>94.393670077124</v>
       </c>
       <c r="R17">
-        <v>1175.75166584688</v>
+        <v>849.5430306941161</v>
       </c>
       <c r="S17">
-        <v>0.0008114870761409142</v>
+        <v>0.0004764426000233645</v>
       </c>
       <c r="T17">
-        <v>0.0008114870761409142</v>
+        <v>0.0004764426000233644</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.291612</v>
       </c>
       <c r="O18">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P18">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q18">
-        <v>0.5257908221919999</v>
+        <v>0.331469916976</v>
       </c>
       <c r="R18">
-        <v>4.732117399727999</v>
+        <v>2.983229252784</v>
       </c>
       <c r="S18">
-        <v>3.266040120721306E-06</v>
+        <v>1.673061222691532E-06</v>
       </c>
       <c r="T18">
-        <v>3.266040120721305E-06</v>
+        <v>1.673061222691532E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N19">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O19">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P19">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q19">
-        <v>863.041519420129</v>
+        <v>928.4413505771506</v>
       </c>
       <c r="R19">
-        <v>7767.373674781163</v>
+        <v>8355.972155194355</v>
       </c>
       <c r="S19">
-        <v>0.005360930828962092</v>
+        <v>0.004686214771358737</v>
       </c>
       <c r="T19">
-        <v>0.005360930828962092</v>
+        <v>0.004686214771358737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N20">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O20">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P20">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q20">
-        <v>52.39207354844533</v>
+        <v>40.01743013394132</v>
       </c>
       <c r="R20">
-        <v>471.5286619360079</v>
+        <v>360.1568712054719</v>
       </c>
       <c r="S20">
-        <v>0.0003254423755508593</v>
+        <v>0.0002019839724813171</v>
       </c>
       <c r="T20">
-        <v>0.0003254423755508592</v>
+        <v>0.0002019839724813171</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N21">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O21">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P21">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q21">
-        <v>1219.479165990449</v>
+        <v>807.5514681178266</v>
       </c>
       <c r="R21">
-        <v>10975.31249391404</v>
+        <v>7267.96321306044</v>
       </c>
       <c r="S21">
-        <v>0.007575004572929126</v>
+        <v>0.004076035191855368</v>
       </c>
       <c r="T21">
-        <v>0.007575004572929125</v>
+        <v>0.004076035191855368</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N22">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O22">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P22">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q22">
-        <v>3.096432467724444</v>
+        <v>6.323297772814001</v>
       </c>
       <c r="R22">
-        <v>27.86789220952</v>
+        <v>56.90967995532601</v>
       </c>
       <c r="S22">
-        <v>1.92340228163952E-05</v>
+        <v>3.191621248691726E-05</v>
       </c>
       <c r="T22">
-        <v>1.92340228163952E-05</v>
+        <v>3.191621248691725E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.291612</v>
       </c>
       <c r="O23">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P23">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q23">
-        <v>0.01246239523466667</v>
+        <v>0.022204698536</v>
       </c>
       <c r="R23">
-        <v>0.112161557112</v>
+        <v>0.199842286824</v>
       </c>
       <c r="S23">
-        <v>7.741231135800272E-08</v>
+        <v>1.120759929620608E-07</v>
       </c>
       <c r="T23">
-        <v>7.741231135800272E-08</v>
+        <v>1.120759929620608E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N24">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O24">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P24">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q24">
-        <v>20.45597615055622</v>
+        <v>62.19496624610734</v>
       </c>
       <c r="R24">
-        <v>184.103785355006</v>
+        <v>559.7546962149661</v>
       </c>
       <c r="S24">
-        <v>0.0001270658140012915</v>
+        <v>0.000313922865828289</v>
       </c>
       <c r="T24">
-        <v>0.0001270658140012915</v>
+        <v>0.000313922865828289</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N25">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O25">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P25">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q25">
-        <v>1.241807007970222</v>
+        <v>2.680710757754667</v>
       </c>
       <c r="R25">
-        <v>11.176263071732</v>
+        <v>24.126396819792</v>
       </c>
       <c r="S25">
-        <v>7.713697803463369E-06</v>
+        <v>1.353061918549943E-05</v>
       </c>
       <c r="T25">
-        <v>7.713697803463369E-06</v>
+        <v>1.353061918549942E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N26">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O26">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P26">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q26">
-        <v>28.90432983150289</v>
+        <v>54.09672487159335</v>
       </c>
       <c r="R26">
-        <v>260.138968483526</v>
+        <v>486.8705238443401</v>
       </c>
       <c r="S26">
-        <v>0.0001795442158892946</v>
+        <v>0.0002730478032002782</v>
       </c>
       <c r="T26">
-        <v>0.0001795442158892946</v>
+        <v>0.0002730478032002782</v>
       </c>
     </row>
   </sheetData>
